--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2877.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2877.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.203437887386445</v>
+        <v>2.272216320037842</v>
       </c>
       <c r="B1">
-        <v>2.013293121277759</v>
+        <v>2.682085037231445</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.836045026779175</v>
       </c>
       <c r="D1">
-        <v>2.029574684817137</v>
+        <v>3.551714420318604</v>
       </c>
       <c r="E1">
-        <v>1.204196906037403</v>
+        <v>1.617812275886536</v>
       </c>
     </row>
   </sheetData>
